--- a/data/fact_data/Jalna/Jalna_Nov_19.xlsx
+++ b/data/fact_data/Jalna/Jalna_Nov_19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/Jalna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDB6F7D-064F-BF4D-992A-68D713EA7980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64356B-B2BC-CF41-89FD-DAAFE2AEEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{28097F4D-9C4B-1249-B7E0-60CFF260124D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{28097F4D-9C4B-1249-B7E0-60CFF260124D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ram_Nov_19" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="85">
   <si>
     <t>unit_price</t>
   </si>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -375,6 +375,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,15 +691,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC912B6-C855-634A-B99F-E1EFE507DD85}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H71"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
+    <col min="11" max="11" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
@@ -1308,18 +1311,20 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>29</v>
+      <c r="A22" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>638</v>
+      </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>3828</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>7</v>
@@ -1336,19 +1341,19 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="4">
-        <v>638</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4">
-        <v>3828</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>7</v>
@@ -1365,19 +1370,19 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="4">
-        <v>68</v>
+        <v>240</v>
       </c>
       <c r="E24" s="4">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>7</v>
@@ -1394,19 +1399,19 @@
     </row>
     <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
       </c>
       <c r="D25" s="4">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="E25" s="4">
-        <v>2400</v>
+        <v>3840</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>7</v>
@@ -1423,7 +1428,7 @@
     </row>
     <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
@@ -1432,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="4">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="E26" s="4">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>7</v>
@@ -1452,7 +1457,7 @@
     </row>
     <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6">
         <v>0</v>
@@ -1461,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>520</v>
+        <v>830</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1481,16 +1486,16 @@
     </row>
     <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="4">
-        <v>830</v>
+        <v>430</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -1510,19 +1515,19 @@
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="4">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="E29" s="4">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>7</v>
@@ -1539,19 +1544,19 @@
     </row>
     <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="4">
-        <v>360</v>
+        <v>633</v>
       </c>
       <c r="E30" s="4">
-        <v>360</v>
+        <v>633</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>7</v>
@@ -1568,7 +1573,7 @@
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
         <v>0</v>
@@ -1577,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="4">
-        <v>633</v>
+        <v>789</v>
       </c>
       <c r="E31" s="4">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>7</v>
@@ -1597,7 +1602,7 @@
     </row>
     <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6">
         <v>0</v>
@@ -1606,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>789</v>
+        <v>865</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -1624,9 +1629,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
         <v>0</v>
@@ -1635,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="D33" s="4">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1653,18 +1658,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>863</v>
+        <v>1136</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -1682,9 +1687,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
+    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B35" s="6">
         <v>0</v>
@@ -1692,7 +1697,9 @@
       <c r="C35" s="6">
         <v>0</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4">
+        <v>1367</v>
+      </c>
       <c r="E35" s="4">
         <v>0</v>
       </c>
@@ -1709,18 +1716,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B36" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <v>1136</v>
+        <v>955</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -1738,21 +1745,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
       </c>
       <c r="D37" s="4">
-        <v>1367</v>
+        <v>168</v>
       </c>
       <c r="E37" s="4">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>7</v>
@@ -1767,21 +1774,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="4">
-        <v>955</v>
+        <v>1287</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>7</v>
@@ -1796,21 +1803,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
       </c>
       <c r="D39" s="4">
-        <v>168</v>
+        <v>1358</v>
       </c>
       <c r="E39" s="4">
-        <v>168</v>
+        <v>5432</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>7</v>
@@ -1825,21 +1832,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
       </c>
       <c r="D40" s="4">
-        <v>1287</v>
+        <v>1270</v>
       </c>
       <c r="E40" s="4">
-        <v>1287</v>
+        <v>0</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>7</v>
@@ -1854,9 +1861,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1865,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>1358</v>
+        <v>1184</v>
       </c>
       <c r="E41" s="4">
-        <v>5432</v>
+        <v>0</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>7</v>
@@ -1883,9 +1890,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1894,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="4">
-        <v>1270</v>
+        <v>755</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -1912,9 +1919,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1923,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="4">
-        <v>1184</v>
+        <v>984</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -1941,18 +1948,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
       </c>
       <c r="D44" s="4">
-        <v>755</v>
+        <v>157</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -1970,9 +1977,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>52</v>
+    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -1980,9 +1987,11 @@
       <c r="C45" s="6">
         <v>0</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4">
+        <v>223</v>
+      </c>
       <c r="E45" s="4">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>7</v>
@@ -1997,9 +2006,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
@@ -2008,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="4">
-        <v>984</v>
+        <v>484</v>
       </c>
       <c r="E46" s="4">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>7</v>
@@ -2026,18 +2035,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B47" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="4">
-        <v>157</v>
+        <v>769</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -2055,21 +2064,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B48" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
       </c>
       <c r="D48" s="4">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="E48" s="4">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>7</v>
@@ -2083,10 +2092,11 @@
       <c r="I48" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B49" s="6">
         <v>0</v>
@@ -2094,11 +2104,9 @@
       <c r="C49" s="6">
         <v>0</v>
       </c>
-      <c r="D49" s="4">
-        <v>484</v>
-      </c>
+      <c r="D49" s="4"/>
       <c r="E49" s="4">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>7</v>
@@ -2112,10 +2120,11 @@
       <c r="I49" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>57</v>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B50" s="6">
         <v>0</v>
@@ -2123,7 +2132,9 @@
       <c r="C50" s="6">
         <v>0</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4">
+        <v>59</v>
+      </c>
       <c r="E50" s="4">
         <v>0</v>
       </c>
@@ -2139,10 +2150,11 @@
       <c r="I50" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B51" s="6">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D51" s="4">
-        <v>769</v>
+        <v>80</v>
       </c>
       <c r="E51" s="4">
         <v>0</v>
@@ -2169,9 +2181,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>59</v>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B52" s="6">
         <v>0</v>
@@ -2179,7 +2191,9 @@
       <c r="C52" s="6">
         <v>0</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4">
+        <v>80</v>
+      </c>
       <c r="E52" s="4">
         <v>0</v>
       </c>
@@ -2196,18 +2210,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B53" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
       </c>
       <c r="D53" s="4">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="E53" s="4">
         <v>0</v>
@@ -2225,9 +2239,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B54" s="6">
         <v>0</v>
@@ -2235,7 +2249,9 @@
       <c r="C54" s="6">
         <v>0</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4">
+        <v>127</v>
+      </c>
       <c r="E54" s="4">
         <v>0</v>
       </c>
@@ -2252,17 +2268,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B55" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4">
+        <v>30</v>
+      </c>
       <c r="E55" s="4">
         <v>0</v>
       </c>
@@ -2279,9 +2297,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
+    <row r="56" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
@@ -2306,18 +2324,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B57" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C57" s="6">
         <v>0</v>
       </c>
       <c r="D57" s="4">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E57" s="4">
         <v>0</v>
@@ -2335,21 +2353,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B58" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C58" s="6">
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="E58" s="4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>7</v>
@@ -2364,21 +2382,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B59" s="6">
-        <v>0</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="4">
-        <v>225</v>
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="7">
+        <v>1</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="8">
+        <v>240</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>7</v>
@@ -2393,9 +2411,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>67</v>
+    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -2404,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="4">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="E60" s="4">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>7</v>
@@ -2422,9 +2440,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>68</v>
+    <row r="61" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -2432,7 +2450,9 @@
       <c r="C61" s="6">
         <v>0</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4">
+        <v>112</v>
+      </c>
       <c r="E61" s="4">
         <v>0</v>
       </c>
@@ -2446,283 +2466,6 @@
         <v>84</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="4">
-        <v>80</v>
-      </c>
-      <c r="E62" s="4">
-        <v>0</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="4">
-        <v>19</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="6">
-        <v>0</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="4">
-        <v>125</v>
-      </c>
-      <c r="E63" s="4">
-        <v>0</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="4">
-        <v>19</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="4">
-        <v>127</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="4">
-        <v>19</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4">
-        <v>19</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B66" s="6">
-        <v>5</v>
-      </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="4">
-        <v>30</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="4">
-        <v>19</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="4">
-        <v>19</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="6">
-        <v>5</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>48</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="4">
-        <v>19</v>
-      </c>
-      <c r="H68" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="6">
-        <v>5</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>170</v>
-      </c>
-      <c r="E69" s="4">
-        <v>0</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="4">
-        <v>19</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I69" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="4">
-        <v>19</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>240</v>
-      </c>
-      <c r="E71">
-        <f>B71*D71</f>
-        <v>240</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="4">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I71" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2735,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82324B39-3B60-2946-8E90-2E670250442B}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H71"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4381,7 +4124,7 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -4390,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>7</v>
@@ -4410,7 +4153,7 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -4418,9 +4161,7 @@
       <c r="C59" s="6">
         <v>0</v>
       </c>
-      <c r="D59" s="4">
-        <v>225</v>
-      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4">
         <v>0</v>
       </c>
@@ -4439,7 +4180,7 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -4468,7 +4209,7 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -4476,7 +4217,9 @@
       <c r="C61" s="6">
         <v>0</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4">
+        <v>125</v>
+      </c>
       <c r="E61" s="4">
         <v>0</v>
       </c>
@@ -4495,7 +4238,7 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -4504,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -4524,7 +4267,7 @@
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -4532,9 +4275,7 @@
       <c r="C63" s="6">
         <v>0</v>
       </c>
-      <c r="D63" s="4">
-        <v>125</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -4553,16 +4294,16 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -4582,7 +4323,7 @@
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -4609,16 +4350,16 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -4638,15 +4379,17 @@
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4">
+        <v>170</v>
+      </c>
       <c r="E67" s="4">
         <v>0</v>
       </c>
@@ -4664,21 +4407,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="6">
-        <v>10</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>48</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
+      <c r="A68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
       <c r="F68" s="4" t="s">
         <v>7</v>
       </c>
@@ -4693,20 +4426,20 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" s="6">
-        <v>37</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="4">
-        <v>170</v>
+      <c r="A69" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="7">
+        <v>1</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="8">
+        <v>240</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>7</v>
@@ -4715,18 +4448,28 @@
         <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="A70" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>225</v>
+      </c>
+      <c r="E70" s="4">
+        <v>336</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>7</v>
       </c>
@@ -4734,28 +4477,27 @@
         <v>19</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="5">
-        <v>2</v>
-      </c>
-      <c r="C71" s="5">
+      <c r="A71" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="6">
+        <v>0</v>
+      </c>
+      <c r="C71" s="6">
         <v>0</v>
       </c>
       <c r="D71" s="4">
-        <v>240</v>
-      </c>
-      <c r="E71">
-        <f>B71*D71</f>
-        <v>480</v>
+        <v>112</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>7</v>
@@ -4764,7 +4506,7 @@
         <v>19</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>9</v>
@@ -4777,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDBEADB-680D-C041-B375-260C9E6C80EC}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H71"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6425,19 +6167,19 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="6">
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>7</v>
@@ -6454,7 +6196,7 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -6462,9 +6204,7 @@
       <c r="C59" s="6">
         <v>0</v>
       </c>
-      <c r="D59" s="4">
-        <v>225</v>
-      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4">
         <v>0</v>
       </c>
@@ -6483,7 +6223,7 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -6512,7 +6252,7 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -6520,7 +6260,9 @@
       <c r="C61" s="6">
         <v>0</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4">
+        <v>125</v>
+      </c>
       <c r="E61" s="4">
         <v>0</v>
       </c>
@@ -6539,7 +6281,7 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -6548,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -6568,7 +6310,7 @@
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -6576,9 +6318,7 @@
       <c r="C63" s="6">
         <v>0</v>
       </c>
-      <c r="D63" s="4">
-        <v>125</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -6597,16 +6337,16 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -6626,7 +6366,7 @@
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -6653,16 +6393,16 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -6682,15 +6422,17 @@
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4">
+        <v>170</v>
+      </c>
       <c r="E67" s="4">
         <v>0</v>
       </c>
@@ -6708,20 +6450,20 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>48</v>
+      <c r="A68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>240</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>7</v>
@@ -6730,27 +6472,27 @@
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>76</v>
+      <c r="A69" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B69" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>7</v>
@@ -6759,18 +6501,28 @@
         <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="A70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>112</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>7</v>
       </c>
@@ -6778,39 +6530,9 @@
         <v>19</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>240</v>
-      </c>
-      <c r="E71">
-        <f>B71*D71</f>
-        <v>240</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="4">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6821,10 +6543,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E4D2AA-DB8E-C848-94E6-1F863AC08BA9}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8469,7 +8191,7 @@
     </row>
     <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B58" s="6">
         <v>0</v>
@@ -8478,10 +8200,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="4">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E58" s="4">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>7</v>
@@ -8498,7 +8220,7 @@
     </row>
     <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
@@ -8506,9 +8228,7 @@
       <c r="C59" s="6">
         <v>0</v>
       </c>
-      <c r="D59" s="4">
-        <v>225</v>
-      </c>
+      <c r="D59" s="4"/>
       <c r="E59" s="4">
         <v>0</v>
       </c>
@@ -8527,7 +8247,7 @@
     </row>
     <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B60" s="6">
         <v>0</v>
@@ -8556,7 +8276,7 @@
     </row>
     <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -8564,7 +8284,9 @@
       <c r="C61" s="6">
         <v>0</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4">
+        <v>125</v>
+      </c>
       <c r="E61" s="4">
         <v>0</v>
       </c>
@@ -8583,7 +8305,7 @@
     </row>
     <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -8592,7 +8314,7 @@
         <v>0</v>
       </c>
       <c r="D62" s="4">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4">
         <v>0</v>
@@ -8612,7 +8334,7 @@
     </row>
     <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -8620,9 +8342,7 @@
       <c r="C63" s="6">
         <v>0</v>
       </c>
-      <c r="D63" s="4">
-        <v>125</v>
-      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4">
         <v>0</v>
       </c>
@@ -8641,16 +8361,16 @@
     </row>
     <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="4">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="E64" s="4">
         <v>0</v>
@@ -8670,7 +8390,7 @@
     </row>
     <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="6">
         <v>0</v>
@@ -8697,16 +8417,16 @@
     </row>
     <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B66" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C66" s="6">
         <v>0</v>
       </c>
       <c r="D66" s="4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E66" s="4">
         <v>0</v>
@@ -8726,15 +8446,17 @@
     </row>
     <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B67" s="6">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C67" s="6">
         <v>0</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4">
+        <v>170</v>
+      </c>
       <c r="E67" s="4">
         <v>0</v>
       </c>
@@ -8752,20 +8474,20 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="6">
-        <v>10</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="4">
-        <v>48</v>
+      <c r="A68" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" s="7">
+        <v>1</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="8">
+        <v>240</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>7</v>
@@ -8774,27 +8496,27 @@
         <v>19</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I68" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>76</v>
+      <c r="A69" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B69" s="6">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C69" s="6">
         <v>0</v>
       </c>
       <c r="D69" s="4">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="E69" s="4">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>7</v>
@@ -8803,18 +8525,28 @@
         <v>19</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="A70" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" s="6">
+        <v>0</v>
+      </c>
+      <c r="C70" s="6">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>112</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
       <c r="F70" s="4" t="s">
         <v>7</v>
       </c>
@@ -8822,39 +8554,9 @@
         <v>19</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B71" s="5">
-        <v>1</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0</v>
-      </c>
-      <c r="D71" s="4">
-        <v>240</v>
-      </c>
-      <c r="E71">
-        <f>B71*D71</f>
-        <v>240</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="4">
-        <v>19</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I71" s="4" t="s">
         <v>9</v>
       </c>
     </row>
